--- a/Calibration_P2.xlsx
+++ b/Calibration_P2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -178,17 +175,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pixel Distance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -277,78 +263,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$15:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$15:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6468842729970321</c:v>
+                  <c:v>37.982195845697333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.940652818991097</c:v>
+                  <c:v>77.863501483679528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.47774480712166</c:v>
+                  <c:v>115.84569732937686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.367952522255194</c:v>
+                  <c:v>153.82789317507419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.905044510385764</c:v>
+                  <c:v>191.81008902077153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136.73590504451039</c:v>
+                  <c:v>229.79228486646886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>201.30563798219583</c:v>
+                  <c:v>267.77448071216617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268.72403560830861</c:v>
+                  <c:v>305.7566765578635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>336.14243323442139</c:v>
+                  <c:v>343.73887240356083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>379.82195845697328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415.90504451038578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>451.98813056379822</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>488.07121661721067</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>522.25519287833822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,241 +1310,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Pixel Distance</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>10</v>
-          </cell>
-          <cell r="B3">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>20</v>
-          </cell>
-          <cell r="B4">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>30</v>
-          </cell>
-          <cell r="B5">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>40</v>
-          </cell>
-          <cell r="B6">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>50</v>
-          </cell>
-          <cell r="B7">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>60</v>
-          </cell>
-          <cell r="B8">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>70</v>
-          </cell>
-          <cell r="B9">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>80</v>
-          </cell>
-          <cell r="B10">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>90</v>
-          </cell>
-          <cell r="B11">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>100</v>
-          </cell>
-          <cell r="B12">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>110</v>
-          </cell>
-          <cell r="B13">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>120</v>
-          </cell>
-          <cell r="B14">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>130</v>
-          </cell>
-          <cell r="B15">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>140</v>
-          </cell>
-          <cell r="B16">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>150</v>
-          </cell>
-          <cell r="B17">
-            <v>122</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>160</v>
-          </cell>
-          <cell r="B18">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>170</v>
-          </cell>
-          <cell r="B19">
-            <v>137</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>180</v>
-          </cell>
-          <cell r="B20">
-            <v>144</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>190</v>
-          </cell>
-          <cell r="B21">
-            <v>151</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>200</v>
-          </cell>
-          <cell r="B22">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>250</v>
-          </cell>
-          <cell r="B23">
-            <v>193</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>300</v>
-          </cell>
-          <cell r="B24">
-            <v>227</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>350</v>
-          </cell>
-          <cell r="B25">
-            <v>264</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>400</v>
-          </cell>
-          <cell r="B26">
-            <v>298</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>450</v>
-          </cell>
-          <cell r="B27">
-            <v>333</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>500</v>
-          </cell>
-          <cell r="B28">
-            <v>366</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1826,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">D3/337*640</f>
+        <f t="shared" ref="B3:B30" si="0">D3/337*640</f>
         <v>6.6468842729970321</v>
       </c>
       <c r="D3">
@@ -1979,6 +1760,216 @@
       </c>
       <c r="D11">
         <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>37.982195845697333</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>77.863501483679528</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>115.84569732937686</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>153.82789317507419</v>
+      </c>
+      <c r="D19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>191.81008902077153</v>
+      </c>
+      <c r="D20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>229.79228486646886</v>
+      </c>
+      <c r="D21">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>350</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>267.77448071216617</v>
+      </c>
+      <c r="D22">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>305.7566765578635</v>
+      </c>
+      <c r="D23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>450</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>343.73887240356083</v>
+      </c>
+      <c r="D24">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>500</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>379.82195845697328</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>550</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>415.90504451038578</v>
+      </c>
+      <c r="D26">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>600</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>451.98813056379822</v>
+      </c>
+      <c r="D27">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>650</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>488.07121661721067</v>
+      </c>
+      <c r="D28">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>522.25519287833822</v>
+      </c>
+      <c r="D29">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>750</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>558.33827893175078</v>
+      </c>
+      <c r="D30">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Calibration_P2.xlsx
+++ b/Calibration_P2.xlsx
@@ -263,10 +263,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$29</c:f>
+              <c:f>Sheet1!$A$15:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -311,60 +311,72 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$29</c:f>
+              <c:f>Sheet1!$B$15:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.982195845697333</c:v>
+                  <c:v>29.179331306990882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.863501483679528</c:v>
+                  <c:v>58.358662613981764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.84569732937686</c:v>
+                  <c:v>85.59270516717325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>153.82789317507419</c:v>
+                  <c:v>114.77203647416414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.81008902077153</c:v>
+                  <c:v>143.95136778115503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229.79228486646886</c:v>
+                  <c:v>171.1854103343465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>267.77448071216617</c:v>
+                  <c:v>200.36474164133739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305.7566765578635</c:v>
+                  <c:v>227.59878419452889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343.73887240356083</c:v>
+                  <c:v>256.77811550151978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>379.82195845697328</c:v>
+                  <c:v>284.01215805471122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>415.90504451038578</c:v>
+                  <c:v>311.24620060790272</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>451.98813056379822</c:v>
+                  <c:v>338.48024316109422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>488.07121661721067</c:v>
+                  <c:v>365.71428571428567</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>522.25519287833822</c:v>
+                  <c:v>392.94832826747722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420.18237082066867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>447.41641337386022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,22 +1774,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1785,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>D15/329*640</f>
         <v>0</v>
       </c>
       <c r="D15">
@@ -1797,11 +1796,11 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>37.982195845697333</v>
+        <f t="shared" ref="B16:B31" si="1">D16/329*640</f>
+        <v>29.179331306990882</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,11 +1808,11 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>77.863501483679528</v>
+        <f t="shared" si="1"/>
+        <v>58.358662613981764</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,11 +1820,11 @@
         <v>150</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>115.84569732937686</v>
+        <f t="shared" si="1"/>
+        <v>85.59270516717325</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,11 +1832,11 @@
         <v>200</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>153.82789317507419</v>
+        <f t="shared" si="1"/>
+        <v>114.77203647416414</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,11 +1844,11 @@
         <v>250</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>191.81008902077153</v>
+        <f t="shared" si="1"/>
+        <v>143.95136778115503</v>
       </c>
       <c r="D20">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,11 +1856,11 @@
         <v>300</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>229.79228486646886</v>
+        <f t="shared" si="1"/>
+        <v>171.1854103343465</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,11 +1868,11 @@
         <v>350</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>267.77448071216617</v>
+        <f t="shared" si="1"/>
+        <v>200.36474164133739</v>
       </c>
       <c r="D22">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,11 +1880,11 @@
         <v>400</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>305.7566765578635</v>
+        <f t="shared" si="1"/>
+        <v>227.59878419452889</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,11 +1892,11 @@
         <v>450</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>343.73887240356083</v>
+        <f t="shared" si="1"/>
+        <v>256.77811550151978</v>
       </c>
       <c r="D24">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,11 +1904,11 @@
         <v>500</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>379.82195845697328</v>
+        <f t="shared" si="1"/>
+        <v>284.01215805471122</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,11 +1916,11 @@
         <v>550</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>415.90504451038578</v>
+        <f t="shared" si="1"/>
+        <v>311.24620060790272</v>
       </c>
       <c r="D26">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,11 +1928,11 @@
         <v>600</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>451.98813056379822</v>
+        <f t="shared" si="1"/>
+        <v>338.48024316109422</v>
       </c>
       <c r="D27">
-        <v>238</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,11 +1940,11 @@
         <v>650</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>488.07121661721067</v>
+        <f t="shared" si="1"/>
+        <v>365.71428571428567</v>
       </c>
       <c r="D28">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,11 +1952,11 @@
         <v>700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>522.25519287833822</v>
+        <f t="shared" si="1"/>
+        <v>392.94832826747722</v>
       </c>
       <c r="D29">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,11 +1964,23 @@
         <v>750</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>558.33827893175078</v>
+        <f t="shared" si="1"/>
+        <v>420.18237082066867</v>
       </c>
       <c r="D30">
-        <v>294</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>800</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>447.41641337386022</v>
+      </c>
+      <c r="D31">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
